--- a/biology/Médecine/Lincomycine/Lincomycine.xlsx
+++ b/biology/Médecine/Lincomycine/Lincomycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La lincomycine est une molécule antibiotique produite par l'actinobactérie Streptomyces lincolnensis (en)[3] et appartenant à la classe des lincosamides. La clindamycine en est dérivée[4].
+La lincomycine est une molécule antibiotique produite par l'actinobactérie Streptomyces lincolnensis (en) et appartenant à la classe des lincosamides. La clindamycine en est dérivée.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La lincomycine inhibe la synthèse protéique bactérienne par fixation au ribosome bactérien.
-Elle se fixe spécifiquement à la grande sous unité 50S du ribosome avec différents effets [5]:
+Elle se fixe spécifiquement à la grande sous unité 50S du ribosome avec différents effets :
 Empêcher la fixation de la sous unité 50s à la petite sous unité ribosomique
 Empêcher la fixation des ARNt en se fixant spécifiquement aux sites A et P du ribosome
 Inhiber la formation du ribosome en se fixant en amont au brin 23S constitutif de la grande sous-unité</t>
@@ -546,7 +560,9 @@
           <t>Contre indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allergie aux lincosamides
 Nourrisson &lt;1 mois
